--- a/GeminiProjekt/03_Risikoliste/03_Risikoliste.xlsx
+++ b/GeminiProjekt/03_Risikoliste/03_Risikoliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Desktop/Bachelorprojekte/GeminiProjekt/03_Risikoliste/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonij\Desktop\BAProjekte\GeminiProjekt\03_Risikoliste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FB98D9-6A39-204E-A0CE-9CBE56A439BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9548060D-3C3E-44B6-AE03-249D4D596AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{8AA37867-2096-4847-8E84-26B6891DCBF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8AA37867-2096-4847-8E84-26B6891DCBF6}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Historie" sheetId="9" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
   <si>
     <t>Datum</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Kunden-Risiken</t>
-  </si>
-  <si>
-    <t>Produkt-Risiken</t>
   </si>
   <si>
     <t>Management-Risiken</t>
@@ -221,38 +218,6 @@
     <t>Autor:in</t>
   </si>
   <si>
-    <t>Verzögerung des Projekts durch mangelnde 
-Kommunikation und Zusammenarbeit im Team.</t>
-  </si>
-  <si>
-    <t>Technische Probleme während der 
-Entwicklung, z. B. Fehler in der Software oder Kompatibilitätsprobleme.</t>
-  </si>
-  <si>
-    <t>Fehler im Projektmanagement, z. B. 
-unrealistische Zeitplanung oder unzureichende Risikosteuerung.</t>
-  </si>
-  <si>
-    <t>Unzufriedenheit des Kunden mit dem 
-Spiel, z. B. aufgrund von fehlenden Funktionen oder Bugs.</t>
-  </si>
-  <si>
-    <t>Fehlende Expertise im Team in einem 
-relevanten Bereich, z. B. Gamedesign oder Online-Technologien.</t>
-  </si>
-  <si>
-    <t>Das Spiel ist nicht marktfähig, z. B. weil 
-es nicht genügend Spieler anspricht oder die Qualität nicht stimmt.</t>
-  </si>
-  <si>
-    <t>Fehlende Unterstützung des Managements für 
-das Projekt.</t>
-  </si>
-  <si>
-    <t>Unvorhergesehene Ereignisse, z. B. 
-Verzögerungen bei der Lieferung von Ressourcen oder Änderungen der Anforderungen.</t>
-  </si>
-  <si>
     <t>Frau Schmidt</t>
   </si>
   <si>
@@ -265,112 +230,163 @@
     <t>Unerwünscht</t>
   </si>
   <si>
-    <t>Maßnahmen für Risiko mit ID 1</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID 2</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID 3</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID 4</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID 5</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID 6</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID 7</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID 8</t>
-  </si>
-  <si>
     <t>lindern</t>
   </si>
   <si>
-    <t>Regelmäßige Teambesprechungen mit klar 
-definierter Agenda und Protokollführung.</t>
-  </si>
-  <si>
-    <t>Definition klarer Kommunikationsstandards und 
--regeln im Team, z. B. Verwendung von Kommunikationstools, Einführung von "No-Blame-Kultur".</t>
-  </si>
-  <si>
-    <t>Umfassende Tests mit automatisierten und 
-manuellen Testverfahren während des gesamten Entwicklungsprozesses.</t>
-  </si>
-  <si>
-    <t>Verwendung etablierter und erprobter 
-Technologien, regelmäßige Code-Reviews und Refactorings.</t>
-  </si>
-  <si>
-    <t>Verwendung anerkannter 
-Projektmanagementmethoden (z. B. Scrum, Kanban) und -Werkzeuge.</t>
-  </si>
-  <si>
-    <t>Regelmäßiges Monitoring des Projektfortschritts 
-und Anpassung der Planung bei Bedarf, Durchführung von Projektreviews.</t>
-  </si>
-  <si>
-    <t>Einbeziehung des Kunden in den 
-Entwicklungsprozess durch regelmäßiges Feedback und Usability-Tests.</t>
-  </si>
-  <si>
-    <t>Bereitstellung von Testversionen des Spiels an den 
-Kunden und Einbeziehung seiner Feedbacks in die Weiterentwicklung.</t>
-  </si>
-  <si>
-    <t>Schulung der Mitarbeiter in relevanten Bereichen, 
-z. B. durch Workshops, Trainings oder Online-Kurse.</t>
-  </si>
-  <si>
-    <t>Einbeziehung von externen Experten mit der 
-erforderlichen Expertise in das Projekt.</t>
-  </si>
-  <si>
-    <t>Durchführung von Marktforschung und 
-Konkurrenzanalyse, um die Bedürfnisse und Erwartungen der Zielgruppe zu verstehen.</t>
-  </si>
-  <si>
-    <t>Durchführung von Usability-Tests und 
-Einbeziehung des Kundenfeedbacks in die Spielentwicklung, regelmäßiges Monitoring der Markt</t>
-  </si>
-  <si>
-    <t>Wöchentilich</t>
-  </si>
-  <si>
-    <t>Bei Konflikten im Team</t>
-  </si>
-  <si>
-    <t>Bei Code Änderungen</t>
-  </si>
-  <si>
-    <t>Bei Auftreten von technischen Problemen</t>
-  </si>
-  <si>
-    <t>Projektstart</t>
-  </si>
-  <si>
-    <t>Bei Abweichungen vom Projektplan</t>
-  </si>
-  <si>
-    <t>Projektstart und während der Entwicklungsphasen</t>
-  </si>
-  <si>
-    <t>Bei negativen Rückmeldungen vom Kunden</t>
-  </si>
-  <si>
-    <t>Bei Identifizierung von Wissenslücken im Team</t>
-  </si>
-  <si>
-    <t>Bei komplexen Aufgaben, die die interne Expertise übersteigen</t>
-  </si>
-  <si>
-    <t>Bei negativen Ergebnissen aus Marktforschung oder Usability-Test</t>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Fehlende Teammitglieder: Es besteht die Gefahr, dass Teammitglieder während des Projekts ausscheiden und nicht ersetzt werden können.</t>
+  </si>
+  <si>
+    <t>Kommunikationsschwierigkeiten: Es kann zu Kommunikationsschwierigkeiten zwischen den Teammitgliedern kommen, was zu Missverständnissen und Verzögerungen führen kann.</t>
+  </si>
+  <si>
+    <t>Technische Komplexität: Die Entwicklung des Spiels kann sich als technisch komplexer erweisen als erwartet, was zu Verzögerungen und Mehrkosten führen kann.</t>
+  </si>
+  <si>
+    <t>Softwarefehler: Es kann zu Softwarefehlern kommen, die das Spiel unspielbar machen.</t>
+  </si>
+  <si>
+    <t>Unzureichendes Anforderungsmanagement: Es kann zu einem unzureichenden Anforderungsmanagement kommen, was zu Fehlentwicklungen und Mehrkosten führen kann.</t>
+  </si>
+  <si>
+    <t>Fehlendes Risikomanagement: Es kann zu einem unzureichenden Risikomanagement kommen, was zu unvorhergesehenen Problemen und Kosten führen kann.</t>
+  </si>
+  <si>
+    <t>Änderung der Kundenanforderungen: Der Kunde kann seine Anforderungen während des Projekts ändern, was zu Mehrkosten und Verzögerungen führen kann.</t>
+  </si>
+  <si>
+    <t>Unzufriedenheit des Kunden: Der Kunde kann mit dem fertigen Spiel unzufrieden sein, was zu negativen Bewertungen und einem Imageschaden führen kann.</t>
+  </si>
+  <si>
+    <t>Fehlendes Fachwissen: Es kann zu einem Mangel an Fachwissen im Team kommen, was zu Fehlentwicklungen und Mehrkosten führen kann.</t>
+  </si>
+  <si>
+    <t>Fehlende Marktanalyse: Es kann zu einer unzureichenden Marktanalyse kommen, was zu einem Fehlschlag des Spiels auf dem Markt führen kann.</t>
+  </si>
+  <si>
+    <t>Herr Becker</t>
+  </si>
+  <si>
+    <t>Produkt- und Management-Risiken</t>
+  </si>
+  <si>
+    <t>Zeitverzögerung: Das Projekt kann sich verzögern, was zu 
+Mehrkosten und einem Verlust von Wettbewerbsfähigkeit führen kann.</t>
+  </si>
+  <si>
+    <t>Budgetüberschreitung: Das Projekt kann das Budget 
+überschreiten, was</t>
+  </si>
+  <si>
+    <t>Erstellung eines detaillierten Personalbedarfs und 
+frühzeitige Rekrutierungsmaßnahmen.</t>
+  </si>
+  <si>
+    <t>Möglichkeit von externer Unterstützung oder 
+Freelancern prüfen.</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 1.1</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 2.1</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 3.1</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 4.1</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 1.2</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 2.2</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 3.2</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 4.2</t>
+  </si>
+  <si>
+    <t>Etablierung einer klaren Kommunikationskultur und Nutzung geeigneter Tools.</t>
+  </si>
+  <si>
+    <t>Aufteilung des Projekts in kleinere, überschaubare Module.</t>
+  </si>
+  <si>
+    <t>Einbeziehung von externen Experten mit Erfahrung in der Entwicklung komplexer Softwarelösungen.</t>
+  </si>
+  <si>
+    <t>Schnelle und effektive Fehlerbehebungsprozesse etablieren und den Kunden über den Status informieren.</t>
+  </si>
+  <si>
+    <t>Verwendung geeigneter Anforderungsmanagement-Tools und -Methoden.</t>
+  </si>
+  <si>
+    <t>Schulung der Mitarbeiter im Risikomanagement und Bereitstellung von geeigneten Hilfsmitteln.</t>
+  </si>
+  <si>
+    <t>Verwendung flexibler Entwicklungsmethoden und Bereitstellung von Anpassungsmöglichkeiten.</t>
+  </si>
+  <si>
+    <t>Regelmäßiger Austausch mit dem Kunden und 
+Einbeziehung in den Entwicklungsprozess.</t>
+  </si>
+  <si>
+    <t>Strenge Qualitätssicherungsprozesse implementieren und 
+regelmäßige Code-Reviews durchführen.</t>
+  </si>
+  <si>
+    <t>Umfassende Anforderungsanalyse durchführen und 
+mit dem Kunden abstimmen.</t>
+  </si>
+  <si>
+    <t>Implementierung eines strukturierten 
+Risikomanagementprozesses mit regelmäßigen Bewertungen.</t>
+  </si>
+  <si>
+    <t>Regelmäßige Teambesprechungen und Workshops 
+durchführen.</t>
+  </si>
+  <si>
+    <t>geplant</t>
   </si>
 </sst>
 </file>
@@ -380,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -408,6 +424,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -423,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -446,11 +474,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -514,15 +594,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1527,19 +1656,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>2</v>
@@ -1583,21 +1712,21 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="14" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="14" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1637,11 +1766,11 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3"/>
@@ -1652,298 +1781,393 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="57">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="8">
-        <v>45460</v>
+    <row r="4" spans="1:9" ht="39">
+      <c r="A4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="29">
+        <v>45463</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E4" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="10">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G4" s="10">
         <f>E4*F4</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="17">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
+    <row r="5" spans="1:9" ht="51.75">
+      <c r="A5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="29">
+        <v>45463</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="F5" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G5" s="10">
+        <f>E5*F5</f>
+        <v>2250</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="57">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="8">
-        <v>45460</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>66</v>
+    <row r="7" spans="1:9" ht="39">
+      <c r="A7" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="29">
+        <v>45463</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="E7" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="10">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G7" s="10">
         <f>E7*F7</f>
         <v>6000</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="17">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
+    <row r="8" spans="1:9" ht="26.25">
+      <c r="A8" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="29">
+        <v>45463</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="7">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10">
+        <v>25000</v>
+      </c>
+      <c r="G8" s="10">
+        <f>E8*F8</f>
+        <v>375000</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="57">
-      <c r="A10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="8">
-        <v>45460</v>
+    <row r="10" spans="1:9" ht="39">
+      <c r="A10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="29">
+        <v>45463</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E10" s="9">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F10" s="10">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="10">
         <f>E10*F10</f>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="17">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
+    <row r="11" spans="1:9" ht="39">
+      <c r="A11" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="29">
+        <v>45463</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="10">
+        <f>E11*F11</f>
+        <v>500</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="57">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="8">
-        <v>45460</v>
-      </c>
-      <c r="D13" s="23" t="s">
+    <row r="13" spans="1:9" ht="39">
+      <c r="A13" s="27" t="s">
         <v>67</v>
       </c>
+      <c r="B13" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="29">
+        <v>45463</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="9">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F13" s="10">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="G13" s="10">
         <f>E13*F13</f>
-        <v>800</v>
+        <v>3750</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="17">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
+    <row r="14" spans="1:9" ht="39">
+      <c r="A14" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="29">
+        <v>45463</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="10">
+        <f>E14*F14</f>
+        <v>500</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="24"/>
+        <v>33</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="57">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="8">
-        <v>45460</v>
+    <row r="16" spans="1:9" ht="39">
+      <c r="A16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="29">
+        <v>45463</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E16" s="9">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F16" s="10">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G16" s="10">
         <f>E16*F16</f>
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="17">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="24"/>
+    <row r="17" spans="1:9" ht="39">
+      <c r="A17" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="29">
+        <v>45463</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="10">
+        <f>E17*F17</f>
+        <v>500</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="57">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="8">
-        <v>45460</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>67</v>
+    <row r="19" spans="1:9" ht="39">
+      <c r="A19" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="29">
+        <v>45463</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="E19" s="9">
         <v>0.15</v>
@@ -1956,123 +2180,89 @@
         <v>3750</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="23"/>
+    <row r="20" spans="1:9" ht="26.25">
+      <c r="A20" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="17">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="24"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="57">
-      <c r="A22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="8">
-        <v>45460</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="F22" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="10">
-        <f>E22*F22</f>
-        <v>500</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="22" spans="1:9" ht="18">
+      <c r="A22" s="6"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="23"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="17">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="24"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="76">
-      <c r="A25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="8">
-        <v>45460</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="F25" s="10">
-        <v>12000</v>
-      </c>
-      <c r="G25" s="10">
-        <f>E25*F25</f>
-        <v>2400</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="25" spans="1:9" ht="18">
+      <c r="A25" s="6"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6"/>
@@ -2119,11 +2309,12 @@
       <c r="I29" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3:I29" xr:uid="{A71B45E6-A9F1-4A4B-B77F-C61C6564CF32}">
       <formula1>"aktiv,eingetreten,geschlossen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 H4 H15:H19 H21:H23 H9:H13 H1 H25:H29" xr:uid="{0D68E922-3C0F-644D-B42A-25464E339F94}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25:H29 H4:H5 H21:H23 H1 H7:H19" xr:uid="{0D68E922-3C0F-644D-B42A-25464E339F94}">
       <formula1>"Tolerierbar,Unerwünscht,Kritisch,Katastrophal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2141,16 +2332,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.83203125" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="11"/>
     </row>
@@ -2158,76 +2349,76 @@
       <c r="A2" s="3"/>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:2" ht="17">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="51">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="47.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="34">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.5">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="68">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="63">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2243,19 +2434,19 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1">
@@ -2269,19 +2460,19 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>12</v>
@@ -2300,7 +2491,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -2311,70 +2502,66 @@
       <c r="H3" s="21"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="38">
-      <c r="A4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>90</v>
-      </c>
+    <row r="4" spans="1:9" ht="31.5">
+      <c r="A4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="31"/>
       <c r="D4" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F4" s="9">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G4" s="16">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H5" si="0">F4*G4</f>
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="76">
-      <c r="A5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="31.5">
+      <c r="A5" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="31"/>
       <c r="D5" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F5" s="9">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G5" s="16">
         <v>2500</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="9"/>
@@ -2383,11 +2570,11 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -2395,51 +2582,47 @@
       <c r="H7" s="21"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="57">
-      <c r="A8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>66</v>
+    <row r="8" spans="1:9" ht="31.5">
+      <c r="A8" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F8" s="9">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="G8" s="16">
-        <v>10000</v>
-      </c>
-      <c r="H8" s="16">
+        <v>8000</v>
+      </c>
+      <c r="H8" s="43">
         <f t="shared" ref="H8:H9" si="1">F8*G8</f>
-        <v>2000</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68">
-      <c r="A9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>66</v>
+        <v>640</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="31.5">
+      <c r="A9" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F9" s="9">
         <v>0.05</v>
@@ -2447,18 +2630,18 @@
       <c r="G9" s="16">
         <v>5000</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="43">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="9"/>
@@ -2467,82 +2650,78 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="26"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="57">
-      <c r="A12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>65</v>
+    <row r="12" spans="1:9">
+      <c r="A12" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F12" s="9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="16">
-        <v>3500</v>
-      </c>
-      <c r="H12" s="16">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="43">
         <f t="shared" ref="H12:H13" si="2">F12*G12</f>
-        <v>245.00000000000003</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="68">
-      <c r="A13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5">
+      <c r="A13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F13" s="9">
         <v>0.05</v>
       </c>
       <c r="G13" s="16">
-        <v>2500</v>
-      </c>
-      <c r="H13" s="16">
+        <v>5000</v>
+      </c>
+      <c r="H13" s="43">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
@@ -2551,11 +2730,11 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -2563,70 +2742,66 @@
       <c r="H15" s="21"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="85">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>67</v>
+    <row r="16" spans="1:9" ht="31.5">
+      <c r="A16" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F16" s="9">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G16" s="16">
-        <v>2000</v>
-      </c>
-      <c r="H16" s="16">
+        <v>8000</v>
+      </c>
+      <c r="H16" s="43">
         <f t="shared" ref="H16:H17" si="3">F16*G16</f>
+        <v>640</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.5">
+      <c r="A17" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="76">
-      <c r="A17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="C17" s="31"/>
       <c r="D17" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F17" s="9">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G17" s="16">
         <v>4000</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="43">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="9"/>
@@ -2635,11 +2810,11 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -2647,70 +2822,66 @@
       <c r="H19" s="21"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="85">
-      <c r="A20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>98</v>
-      </c>
+    <row r="20" spans="1:9" ht="31.5">
+      <c r="A20" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="31"/>
       <c r="D20" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F20" s="9">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="G20" s="16">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="16">
+        <v>5000</v>
+      </c>
+      <c r="H20" s="43">
         <f t="shared" ref="H20:H21" si="4">F20*G20</f>
-        <v>20</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="85">
-      <c r="A21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>99</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31.5">
+      <c r="A21" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="31"/>
       <c r="D21" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F21" s="9">
         <v>0.03</v>
       </c>
       <c r="G21" s="16">
-        <v>2000</v>
-      </c>
-      <c r="H21" s="16">
+        <v>2500</v>
+      </c>
+      <c r="H21" s="43">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="9"/>
@@ -2719,11 +2890,11 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -2731,68 +2902,66 @@
       <c r="H23" s="21"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="57">
-      <c r="A24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>94</v>
-      </c>
+    <row r="24" spans="1:9" ht="47.25">
+      <c r="A24" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="31"/>
       <c r="D24" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F24" s="9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G24" s="16">
-        <v>75000</v>
-      </c>
-      <c r="H24" s="16">
+        <v>3000</v>
+      </c>
+      <c r="H24" s="43">
         <f t="shared" ref="H24:H25" si="5">F24*G24</f>
-        <v>5250.0000000000009</v>
+        <v>90</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="102">
-      <c r="A25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="31.5">
+      <c r="A25" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="31"/>
       <c r="D25" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F25" s="9">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="G25" s="16">
-        <v>8000</v>
-      </c>
-      <c r="H25" s="16">
+        <v>2000</v>
+      </c>
+      <c r="H25" s="43">
         <f t="shared" si="5"/>
-        <v>640</v>
-      </c>
-      <c r="I25" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
@@ -2801,11 +2970,11 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -2813,31 +2982,65 @@
       <c r="H27" s="21"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="7"/>
+    <row r="28" spans="1:9" ht="31.5">
+      <c r="A28" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G28" s="16">
+        <v>5000</v>
+      </c>
+      <c r="H28" s="43">
+        <f t="shared" ref="H28:H29" si="6">F28*G28</f>
+        <v>250</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="31.5">
+      <c r="A29" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="G29" s="16">
+        <v>2500</v>
+      </c>
+      <c r="H29" s="43">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -2848,7 +3051,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="20" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -2897,7 +3100,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6 A8:A10 A12:A14 A16:A18 A20:A22 A24:A26 A28:A30 A32:A34" xr:uid="{ED41DB65-ADD7-AF43-B104-ACF5EFF8B705}">
       <formula1>"verhindern,lindern,übertragen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6 I8:I10 I12:I14 I16:I18 I20:I22 I24:I26 I28:I30 I32:I34" xr:uid="{D28A09F5-752C-8645-B910-1496E4E5DC84}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I32:I34 I4:I6 I12:I14 I16:I18 I8:I10 I24:I26 I20:I22 I28:I30" xr:uid="{D28A09F5-752C-8645-B910-1496E4E5DC84}">
       <formula1>"Tolerierbar,Unerwünscht,Kritisch,Katastrophal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E34 E4:E6 E8:E10 E16:E18 E12:E14 E20:E22 E28:E30 E24:E26" xr:uid="{2E868724-E329-B94C-9913-2A06ED351F5D}">
@@ -2921,16 +3124,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="32.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -2938,52 +3141,52 @@
       <c r="A2" s="3"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2" ht="17">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="51">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="47.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="34">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="63">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="85">
-      <c r="A8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
